--- a/Base - Pesquisa de Mercado.xlsx
+++ b/Base - Pesquisa de Mercado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo\OneDrive - Insper - Institudo de Ensino e Pesquisa\Documentos\INSPER\Insper JR\Capacitação\Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB0294B-859A-45EE-8183-51D731C92F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B654428-B9FD-4781-B49B-333176FE40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3CD88EF-A037-4685-92D1-3ABAA8F992C8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="208">
   <si>
     <t>Qual seu nível de escolaridade?</t>
   </si>
@@ -232,9 +232,6 @@
     <t>1 ; 2 ; 5</t>
   </si>
   <si>
-    <t>Reportagem na TV ; 1 ; 2 ; 7</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Pelo app</t>
-  </si>
-  <si>
     <t>1; 4; 6; 7</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
   </si>
   <si>
     <t>2; 3; 7</t>
-  </si>
-  <si>
-    <t>Pandemia</t>
   </si>
   <si>
     <t>3; 4; 5; 6</t>
@@ -466,9 +457,6 @@
     <t>4; 6; 7</t>
   </si>
   <si>
-    <t>Entre 1.000 e1.999</t>
-  </si>
-  <si>
     <t>2; 3</t>
   </si>
   <si>
@@ -505,55 +493,7 @@
     <t>2; 3; 5; 6</t>
   </si>
   <si>
-    <t>RECIFE-PE</t>
-  </si>
-  <si>
-    <t>Recife</t>
-  </si>
-  <si>
     <t>3; 6; 7</t>
-  </si>
-  <si>
-    <t>Batatais-SP</t>
-  </si>
-  <si>
-    <t>Sp Sp</t>
-  </si>
-  <si>
-    <t>São Paulo, SP</t>
-  </si>
-  <si>
-    <t>maceió</t>
-  </si>
-  <si>
-    <t>Maceió- Alagoas</t>
-  </si>
-  <si>
-    <t>Maceió</t>
-  </si>
-  <si>
-    <t>Maceió Alagoas</t>
-  </si>
-  <si>
-    <t>Alagoas</t>
-  </si>
-  <si>
-    <t>Maceió AL</t>
-  </si>
-  <si>
-    <t>Sp</t>
-  </si>
-  <si>
-    <t>Batatais - SP</t>
-  </si>
-  <si>
-    <t>Natal</t>
-  </si>
-  <si>
-    <t>natal - rio grande do norte</t>
-  </si>
-  <si>
-    <t>Batatais</t>
   </si>
   <si>
     <t>Variável</t>
@@ -640,9 +580,6 @@
     <t>Suplementos</t>
   </si>
   <si>
-    <t>Você utiliza/ já utilizou algum aplicativo de suplemento alimentar?</t>
-  </si>
-  <si>
     <t>Quais marcas de suplementos você conhece e já utilizou?</t>
   </si>
   <si>
@@ -719,6 +656,9 @@
   </si>
   <si>
     <t>2 ; 5 ; 6</t>
+  </si>
+  <si>
+    <t>Você utiliza/ já utilizou algum de suplemento alimentar?</t>
   </si>
 </sst>
 </file>
@@ -1301,55 +1241,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC70B60A-C724-47F5-A115-940F111DACAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19507200" y="419101"/>
-          <a:ext cx="3848100" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1652,14 +1543,15 @@
   </sheetPr>
   <dimension ref="A1:AE703"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D514" sqref="D514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6843,7 +6735,7 @@
         <v>36</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M76">
         <v>7</v>
@@ -6908,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -7064,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -7316,7 +7208,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85" s="3">
         <v>5</v>
@@ -7500,10 +7392,10 @@
         <v>1</v>
       </c>
       <c r="K88" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L88" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="M88">
         <v>7</v>
@@ -7685,7 +7577,7 @@
         <v>36</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M90">
         <v>7</v>
@@ -7932,7 +7824,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" s="3">
         <v>2</v>
@@ -7990,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>59</v>
@@ -8093,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="3">
         <v>7</v>
@@ -8179,7 +8071,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C98" s="3">
         <v>4</v>
@@ -9013,7 +8905,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9405,7 +9297,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C118" s="3">
         <v>3</v>
@@ -9673,7 +9565,7 @@
         <v>5</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C122" s="3">
         <v>7</v>
@@ -9913,10 +9805,10 @@
         <v>1</v>
       </c>
       <c r="K125" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L125" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="M125">
         <v>4</v>
@@ -10654,7 +10546,7 @@
         <v>5</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C137" s="3">
         <v>3</v>
@@ -10885,7 +10777,7 @@
         <v>5</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142" s="3">
         <v>6</v>
@@ -10943,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L143" s="5" t="s">
         <v>48</v>
@@ -11069,7 +10961,7 @@
         <v>1</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L145" s="5">
         <v>2</v>
@@ -11137,7 +11029,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C146" s="3">
         <v>4</v>
@@ -11384,7 +11276,7 @@
         <v>5</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C151" s="3">
         <v>6</v>
@@ -11596,7 +11488,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C155" s="3">
         <v>4</v>
@@ -11631,7 +11523,7 @@
         <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C156" s="3">
         <v>3</v>
@@ -11783,7 +11675,7 @@
         <v>45</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M158">
         <v>3</v>
@@ -11883,7 +11775,7 @@
         <v>5</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C160" s="3">
         <v>4</v>
@@ -12153,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L165" s="5">
         <v>5</v>
@@ -12221,7 +12113,7 @@
         <v>5</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C166" s="3">
         <v>5</v>
@@ -12529,7 +12421,7 @@
         <v>5</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C170" s="3">
         <v>4</v>
@@ -13033,7 +12925,7 @@
         <v>5</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C178" s="3">
         <v>4</v>
@@ -13103,7 +12995,7 @@
         <v>5</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C180" s="3">
         <v>6</v>
@@ -13164,7 +13056,7 @@
         <v>45</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M181">
         <v>6</v>
@@ -13229,7 +13121,7 @@
         <v>5</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C182" s="3">
         <v>7</v>
@@ -13290,7 +13182,7 @@
         <v>34</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M183">
         <v>7</v>
@@ -14008,7 +13900,7 @@
         <v>63</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M193">
         <v>7</v>
@@ -14108,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C195" s="3">
         <v>6</v>
@@ -14143,7 +14035,7 @@
         <v>5</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C196" s="3">
         <v>6</v>
@@ -14472,7 +14364,7 @@
         <v>34</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M201">
         <v>4</v>
@@ -14563,7 +14455,7 @@
         <v>63</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M202">
         <v>5</v>
@@ -14810,7 +14702,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C205" s="3">
         <v>4</v>
@@ -14962,7 +14854,7 @@
         <v>4</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M207">
         <v>3</v>
@@ -15050,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="K208" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L208" s="5" t="s">
         <v>64</v>
@@ -15144,7 +15036,7 @@
         <v>4</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M209">
         <v>7</v>
@@ -15232,7 +15124,7 @@
         <v>1</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L210" s="5">
         <v>2</v>
@@ -15482,7 +15374,7 @@
         <v>5</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C213" s="3">
         <v>4</v>
@@ -15540,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="K214" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L214" s="5">
         <v>2</v>
@@ -15825,7 +15717,7 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C218" s="3">
         <v>1</v>
@@ -16037,7 +15929,7 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C222" s="3">
         <v>1</v>
@@ -16265,7 +16157,7 @@
         <v>5</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C226" s="3">
         <v>5</v>
@@ -16412,7 +16304,7 @@
         <v>45</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M229">
         <v>7</v>
@@ -16659,7 +16551,7 @@
         <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C232" s="3">
         <v>2</v>
@@ -16980,7 +16872,7 @@
         <v>1</v>
       </c>
       <c r="K238" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L238" s="5" t="s">
         <v>47</v>
@@ -17367,7 +17259,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C244" s="3">
         <v>5</v>
@@ -17824,10 +17716,10 @@
         <v>1</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M250">
         <v>6</v>
@@ -17927,7 +17819,7 @@
         <v>5</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C252" s="3">
         <v>6</v>
@@ -17985,10 +17877,10 @@
         <v>1</v>
       </c>
       <c r="K253" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L253" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="L253" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="M253">
         <v>7</v>
@@ -18253,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L257" s="5">
         <v>1</v>
@@ -18435,7 +18327,7 @@
         <v>1</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L259" s="5">
         <v>1</v>
@@ -18664,7 +18556,7 @@
         <v>5</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C263" s="3">
         <v>1</v>
@@ -19503,7 +19395,7 @@
         <v>5</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C276" s="3">
         <v>4</v>
@@ -19918,7 +19810,7 @@
         <v>45</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M283">
         <v>7</v>
@@ -20006,10 +19898,10 @@
         <v>1</v>
       </c>
       <c r="K284" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L284" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="L284" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="M284">
         <v>4</v>
@@ -20780,10 +20672,10 @@
         <v>1</v>
       </c>
       <c r="K294" s="5" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M294">
         <v>7</v>
@@ -20848,7 +20740,7 @@
         <v>5</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C295" s="3">
         <v>5</v>
@@ -20883,7 +20775,7 @@
         <v>5</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C296" s="3">
         <v>1</v>
@@ -21911,7 +21803,7 @@
         <v>1</v>
       </c>
       <c r="K311" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L311" s="5" t="s">
         <v>38</v>
@@ -22070,7 +21962,7 @@
         <v>5</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C313" s="3">
         <v>7</v>
@@ -22131,7 +22023,7 @@
         <v>41</v>
       </c>
       <c r="L314" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M314">
         <v>5</v>
@@ -22677,7 +22569,7 @@
         <v>34</v>
       </c>
       <c r="L320" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M320">
         <v>3</v>
@@ -23106,7 +22998,7 @@
         <v>5</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C325" s="3">
         <v>2</v>
@@ -23199,10 +23091,10 @@
         <v>1</v>
       </c>
       <c r="K327" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L327" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M327">
         <v>7</v>
@@ -23497,10 +23389,10 @@
         <v>1</v>
       </c>
       <c r="K333" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L333" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M333">
         <v>7</v>
@@ -23591,7 +23483,7 @@
         <v>63</v>
       </c>
       <c r="L334" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M334">
         <v>7</v>
@@ -24038,7 +23930,7 @@
         <v>1</v>
       </c>
       <c r="K340" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L340" s="5" t="s">
         <v>37</v>
@@ -24620,7 +24512,7 @@
       </c>
       <c r="J350" s="4"/>
       <c r="K350" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L350" s="5"/>
       <c r="Y350" s="2">
@@ -24976,7 +24868,7 @@
         <v>1</v>
       </c>
       <c r="K356" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L356" s="5">
         <v>1</v>
@@ -25571,7 +25463,7 @@
         <v>41</v>
       </c>
       <c r="L364" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M364">
         <v>6</v>
@@ -25813,7 +25705,7 @@
         <v>5</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C368" s="3">
         <v>5</v>
@@ -25890,7 +25782,7 @@
       </c>
       <c r="J370" s="4"/>
       <c r="K370" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L370" s="5"/>
       <c r="Y370" s="2">
@@ -26370,7 +26262,7 @@
         <v>5</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C377" s="3">
         <v>6</v>
@@ -26582,7 +26474,7 @@
         <v>5</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C381" s="3">
         <v>4</v>
@@ -26805,7 +26697,7 @@
         <v>3</v>
       </c>
       <c r="J384" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K384" s="5"/>
       <c r="L384" s="5"/>
@@ -26859,7 +26751,7 @@
         <v>1</v>
       </c>
       <c r="K385" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L385" s="5" t="s">
         <v>40</v>
@@ -27190,7 +27082,7 @@
         <v>5</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C391" s="3">
         <v>4</v>
@@ -27299,7 +27191,7 @@
         <v>1</v>
       </c>
       <c r="K393" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L393" s="5">
         <v>2</v>
@@ -27367,7 +27259,7 @@
         <v>5</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C394" s="3">
         <v>7</v>
@@ -27497,8 +27389,8 @@
       <c r="K397" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L397" s="5" t="s">
-        <v>107</v>
+      <c r="L397" s="5">
+        <v>1</v>
       </c>
       <c r="M397">
         <v>5</v>
@@ -27563,7 +27455,7 @@
         <v>5</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C398" s="3">
         <v>7</v>
@@ -27621,7 +27513,7 @@
         <v>1</v>
       </c>
       <c r="K399" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L399" s="5">
         <v>2</v>
@@ -27689,7 +27581,7 @@
         <v>5</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C400" s="3">
         <v>5</v>
@@ -28996,10 +28888,10 @@
         <v>1</v>
       </c>
       <c r="K424" s="5" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L424" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M424">
         <v>7</v>
@@ -29085,10 +28977,10 @@
         <v>1</v>
       </c>
       <c r="K425" s="5" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L425" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M425">
         <v>7</v>
@@ -29263,7 +29155,7 @@
         <v>1</v>
       </c>
       <c r="K427" s="5" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L427" s="5">
         <v>1</v>
@@ -29441,7 +29333,7 @@
         <v>1</v>
       </c>
       <c r="K429" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L429" s="5" t="s">
         <v>36</v>
@@ -29622,7 +29514,7 @@
         <v>6</v>
       </c>
       <c r="L431" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M431">
         <v>7</v>
@@ -29975,7 +29867,7 @@
         <v>1</v>
       </c>
       <c r="K435" s="5" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L435" s="5" t="s">
         <v>62</v>
@@ -30242,7 +30134,7 @@
         <v>1</v>
       </c>
       <c r="K438" s="5" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="L438" s="5">
         <v>2</v>
@@ -30420,7 +30312,7 @@
         <v>1</v>
       </c>
       <c r="K440" s="5" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L440" s="5">
         <v>1</v>
@@ -30598,10 +30490,10 @@
         <v>1</v>
       </c>
       <c r="K442" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L442" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M442">
         <v>7</v>
@@ -30868,7 +30760,7 @@
         <v>1</v>
       </c>
       <c r="L445" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M445">
         <v>7</v>
@@ -31132,7 +31024,7 @@
         <v>1</v>
       </c>
       <c r="K448" s="5" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L448" s="5" t="s">
         <v>45</v>
@@ -31399,10 +31291,10 @@
         <v>1</v>
       </c>
       <c r="K451" s="5" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="L451" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M451">
         <v>3</v>
@@ -32023,7 +31915,7 @@
         <v>45</v>
       </c>
       <c r="L458" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M458">
         <v>7</v>
@@ -32109,7 +32001,7 @@
         <v>1</v>
       </c>
       <c r="K459" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L459" s="5" t="s">
         <v>48</v>
@@ -32379,7 +32271,7 @@
         <v>2</v>
       </c>
       <c r="L462" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M462">
         <v>7</v>
@@ -32468,7 +32360,7 @@
         <v>45</v>
       </c>
       <c r="L463" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M463">
         <v>7</v>
@@ -32554,7 +32446,7 @@
         <v>1</v>
       </c>
       <c r="K464" s="5" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L464" s="5">
         <v>2</v>
@@ -32821,7 +32713,7 @@
         <v>1</v>
       </c>
       <c r="K467" s="5" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="L467" s="5" t="s">
         <v>36</v>
@@ -32999,7 +32891,7 @@
         <v>1</v>
       </c>
       <c r="K469" s="5" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L469" s="5">
         <v>2</v>
@@ -33177,10 +33069,10 @@
         <v>1</v>
       </c>
       <c r="K471" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L471" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M471">
         <v>6</v>
@@ -33269,7 +33161,7 @@
         <v>1</v>
       </c>
       <c r="L472" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M472">
         <v>7</v>
@@ -33358,7 +33250,7 @@
         <v>49</v>
       </c>
       <c r="L473" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M473">
         <v>7</v>
@@ -33533,7 +33425,7 @@
         <v>1</v>
       </c>
       <c r="K475" s="5" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L475" s="5" t="s">
         <v>37</v>
@@ -33622,7 +33514,7 @@
         <v>1</v>
       </c>
       <c r="K476" s="5" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L476" s="5">
         <v>2</v>
@@ -33800,10 +33692,10 @@
         <v>1</v>
       </c>
       <c r="K478" s="5" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L478" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M478">
         <v>2</v>
@@ -33889,10 +33781,10 @@
         <v>1</v>
       </c>
       <c r="K479" s="5" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L479" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M479">
         <v>7</v>
@@ -33955,7 +33847,7 @@
         <v>5</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C480" s="3">
         <v>4</v>
@@ -33985,7 +33877,7 @@
         <v>5</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C481" s="3">
         <v>5</v>
@@ -34015,7 +33907,7 @@
         <v>5</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C482" s="3">
         <v>2</v>
@@ -34045,7 +33937,7 @@
         <v>5</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C483" s="3">
         <v>3</v>
@@ -34105,7 +33997,7 @@
         <v>5</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C485" s="3">
         <v>5</v>
@@ -34165,7 +34057,7 @@
         <v>5</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C487" s="3">
         <v>1</v>
@@ -34195,7 +34087,7 @@
         <v>5</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C488" s="3">
         <v>5</v>
@@ -34225,7 +34117,7 @@
         <v>5</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C489" s="3">
         <v>5</v>
@@ -34255,7 +34147,7 @@
         <v>5</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C490" s="3">
         <v>5</v>
@@ -34285,7 +34177,7 @@
         <v>5</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C491" s="3">
         <v>5</v>
@@ -34375,7 +34267,7 @@
         <v>5</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C494" s="3">
         <v>5</v>
@@ -34435,7 +34327,7 @@
         <v>5</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C496" s="3">
         <v>3</v>
@@ -34465,7 +34357,7 @@
         <v>5</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C497" s="3">
         <v>6</v>
@@ -34495,7 +34387,7 @@
         <v>5</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C498" s="3">
         <v>4</v>
@@ -34555,7 +34447,7 @@
         <v>5</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C500" s="3">
         <v>2</v>
@@ -34585,7 +34477,7 @@
         <v>5</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C501" s="3">
         <v>3</v>
@@ -34825,7 +34717,7 @@
         <v>5</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C509" s="3">
         <v>5</v>
@@ -34914,8 +34806,8 @@
       <c r="A512" s="2">
         <v>5</v>
       </c>
-      <c r="B512" s="3" t="s">
-        <v>123</v>
+      <c r="B512" s="3">
+        <v>1</v>
       </c>
       <c r="C512" s="3">
         <v>1</v>
@@ -34945,7 +34837,7 @@
         <v>5</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C513" s="3">
         <v>1</v>
@@ -34975,7 +34867,7 @@
         <v>5</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C514" s="3">
         <v>7</v>
@@ -35035,7 +34927,7 @@
         <v>5</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C516" s="3">
         <v>1</v>
@@ -35065,7 +34957,7 @@
         <v>5</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C517" s="3">
         <v>4</v>
@@ -35095,7 +34987,7 @@
         <v>5</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C518" s="3">
         <v>1</v>
@@ -35125,7 +35017,7 @@
         <v>5</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C519" s="3">
         <v>1</v>
@@ -35215,7 +35107,7 @@
         <v>5</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C522" s="3">
         <v>6</v>
@@ -35245,7 +35137,7 @@
         <v>5</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C523" s="3">
         <v>7</v>
@@ -35275,7 +35167,7 @@
         <v>5</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C524" s="3">
         <v>4</v>
@@ -35305,7 +35197,7 @@
         <v>5</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C525" s="3">
         <v>7</v>
@@ -35365,7 +35257,7 @@
         <v>5</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C527" s="3">
         <v>6</v>
@@ -35395,7 +35287,7 @@
         <v>5</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C528" s="3">
         <v>5</v>
@@ -35425,7 +35317,7 @@
         <v>5</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C529" s="3">
         <v>4</v>
@@ -35455,7 +35347,7 @@
         <v>5</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C530" s="3">
         <v>5</v>
@@ -35485,7 +35377,7 @@
         <v>5</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C531" s="3">
         <v>3</v>
@@ -35635,7 +35527,7 @@
         <v>5</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C536" s="3">
         <v>5</v>
@@ -35695,7 +35587,7 @@
         <v>5</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C538" s="3">
         <v>5</v>
@@ -35755,7 +35647,7 @@
         <v>5</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C540" s="3">
         <v>2</v>
@@ -35845,7 +35737,7 @@
         <v>5</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C543" s="3">
         <v>1</v>
@@ -35875,7 +35767,7 @@
         <v>5</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C544" s="3">
         <v>1</v>
@@ -35905,7 +35797,7 @@
         <v>5</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C545" s="3">
         <v>4</v>
@@ -35935,7 +35827,7 @@
         <v>5</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C546" s="3">
         <v>3</v>
@@ -35965,7 +35857,7 @@
         <v>5</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C547" s="3">
         <v>1</v>
@@ -35995,7 +35887,7 @@
         <v>5</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C548" s="3">
         <v>3</v>
@@ -36025,7 +35917,7 @@
         <v>5</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C549" s="3">
         <v>3</v>
@@ -36055,7 +35947,7 @@
         <v>5</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C550" s="3">
         <v>5</v>
@@ -36085,7 +35977,7 @@
         <v>5</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C551" s="3">
         <v>2</v>
@@ -36115,7 +36007,7 @@
         <v>5</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C552" s="3">
         <v>1</v>
@@ -36205,7 +36097,7 @@
         <v>5</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C555" s="3">
         <v>1</v>
@@ -36265,7 +36157,7 @@
         <v>5</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C557" s="3">
         <v>4</v>
@@ -36445,7 +36337,7 @@
         <v>5</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C563" s="3">
         <v>4</v>
@@ -36535,7 +36427,7 @@
         <v>5</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C566" s="3">
         <v>2</v>
@@ -36565,7 +36457,7 @@
         <v>5</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C567" s="3">
         <v>7</v>
@@ -36625,7 +36517,7 @@
         <v>5</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C569" s="3">
         <v>5</v>
@@ -36745,7 +36637,7 @@
         <v>5</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C573" s="3">
         <v>5</v>
@@ -36865,7 +36757,7 @@
         <v>5</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C577" s="3">
         <v>5</v>
@@ -37045,7 +36937,7 @@
         <v>5</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C583" s="3">
         <v>5</v>
@@ -37075,7 +36967,7 @@
         <v>5</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C584" s="3">
         <v>1</v>
@@ -37195,7 +37087,7 @@
         <v>5</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C588" s="3">
         <v>7</v>
@@ -37255,7 +37147,7 @@
         <v>5</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C590" s="3">
         <v>5</v>
@@ -37285,7 +37177,7 @@
         <v>5</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C591" s="3">
         <v>5</v>
@@ -37315,7 +37207,7 @@
         <v>5</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C592" s="3">
         <v>4</v>
@@ -37405,7 +37297,7 @@
         <v>5</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C595" s="3">
         <v>4</v>
@@ -37465,7 +37357,7 @@
         <v>5</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C597" s="3">
         <v>5</v>
@@ -37495,7 +37387,7 @@
         <v>5</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C598" s="3">
         <v>3</v>
@@ -37585,7 +37477,7 @@
         <v>5</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C601" s="3">
         <v>4</v>
@@ -37615,7 +37507,7 @@
         <v>5</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C602" s="3">
         <v>4</v>
@@ -37705,7 +37597,7 @@
         <v>5</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C605" s="3">
         <v>4</v>
@@ -37735,7 +37627,7 @@
         <v>5</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C606" s="3">
         <v>1</v>
@@ -37765,7 +37657,7 @@
         <v>5</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C607" s="3">
         <v>5</v>
@@ -37885,7 +37777,7 @@
         <v>5</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C611" s="3">
         <v>3</v>
@@ -37975,7 +37867,7 @@
         <v>5</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C614" s="3">
         <v>5</v>
@@ -38035,7 +37927,7 @@
         <v>5</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C616" s="3">
         <v>3</v>
@@ -38215,7 +38107,7 @@
         <v>5</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C622" s="3">
         <v>5</v>
@@ -38236,8 +38128,8 @@
       <c r="AD622" s="2">
         <v>1</v>
       </c>
-      <c r="AE622" s="2" t="s">
-        <v>143</v>
+      <c r="AE622" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:31" x14ac:dyDescent="0.3">
@@ -38245,7 +38137,7 @@
         <v>5</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C623" s="3">
         <v>5</v>
@@ -38275,7 +38167,7 @@
         <v>5</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C624" s="3">
         <v>3</v>
@@ -38305,7 +38197,7 @@
         <v>5</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C625" s="3">
         <v>6</v>
@@ -38335,7 +38227,7 @@
         <v>5</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C626" s="3">
         <v>6</v>
@@ -38365,7 +38257,7 @@
         <v>5</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C627" s="3">
         <v>6</v>
@@ -38455,7 +38347,7 @@
         <v>5</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C630" s="3">
         <v>3</v>
@@ -38485,7 +38377,7 @@
         <v>5</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C631" s="3">
         <v>6</v>
@@ -38515,7 +38407,7 @@
         <v>5</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C632" s="3">
         <v>6</v>
@@ -38605,7 +38497,7 @@
         <v>5</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C635" s="3">
         <v>5</v>
@@ -38635,7 +38527,7 @@
         <v>5</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C636" s="3">
         <v>5</v>
@@ -38665,7 +38557,7 @@
         <v>5</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C637" s="3">
         <v>5</v>
@@ -38695,7 +38587,7 @@
         <v>5</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C638" s="3">
         <v>6</v>
@@ -38725,7 +38617,7 @@
         <v>5</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C639" s="3">
         <v>5</v>
@@ -38785,7 +38677,7 @@
         <v>5</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C641" s="3">
         <v>4</v>
@@ -38875,7 +38767,7 @@
         <v>5</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C644" s="3">
         <v>1</v>
@@ -38905,7 +38797,7 @@
         <v>5</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C645" s="3">
         <v>3</v>
@@ -38935,7 +38827,7 @@
         <v>5</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C646" s="3">
         <v>2</v>
@@ -38965,7 +38857,7 @@
         <v>5</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C647" s="3">
         <v>2</v>
@@ -38995,7 +38887,7 @@
         <v>5</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C648" s="3">
         <v>5</v>
@@ -39055,7 +38947,7 @@
         <v>5</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C650" s="3">
         <v>5</v>
@@ -39085,7 +38977,7 @@
         <v>5</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C651" s="3">
         <v>2</v>
@@ -39115,7 +39007,7 @@
         <v>5</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C652" s="3">
         <v>5</v>
@@ -39145,7 +39037,7 @@
         <v>5</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C653" s="3">
         <v>4</v>
@@ -39175,7 +39067,7 @@
         <v>5</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C654" s="3">
         <v>5</v>
@@ -39205,7 +39097,7 @@
         <v>5</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C655" s="3">
         <v>5</v>
@@ -39235,7 +39127,7 @@
         <v>5</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C656" s="3">
         <v>4</v>
@@ -39265,7 +39157,7 @@
         <v>5</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C657" s="3">
         <v>1</v>
@@ -39445,7 +39337,7 @@
         <v>5</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C663" s="3">
         <v>4</v>
@@ -39565,7 +39457,7 @@
         <v>5</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C667" s="3">
         <v>6</v>
@@ -39595,7 +39487,7 @@
         <v>5</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C668" s="3">
         <v>1</v>
@@ -39625,7 +39517,7 @@
         <v>5</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C669" s="3">
         <v>5</v>
@@ -39655,7 +39547,7 @@
         <v>5</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C670" s="3">
         <v>6</v>
@@ -39715,7 +39607,7 @@
         <v>5</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C672" s="3">
         <v>5</v>
@@ -39775,7 +39667,7 @@
         <v>5</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C674" s="3">
         <v>5</v>
@@ -39805,7 +39697,7 @@
         <v>5</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C675" s="3">
         <v>2</v>
@@ -39835,7 +39727,7 @@
         <v>5</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C676" s="3">
         <v>7</v>
@@ -39895,7 +39787,7 @@
         <v>5</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C678" s="3">
         <v>4</v>
@@ -39925,7 +39817,7 @@
         <v>5</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C679" s="3">
         <v>1</v>
@@ -39955,7 +39847,7 @@
         <v>5</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C680" s="3">
         <v>5</v>
@@ -39973,8 +39865,8 @@
       <c r="AC680" s="2">
         <v>2</v>
       </c>
-      <c r="AD680" s="2" t="s">
-        <v>156</v>
+      <c r="AD680" s="2">
+        <v>4</v>
       </c>
       <c r="AE680" s="2">
         <v>1</v>
@@ -40003,8 +39895,8 @@
       <c r="AC681" s="2">
         <v>2</v>
       </c>
-      <c r="AD681" s="2" t="s">
-        <v>157</v>
+      <c r="AD681" s="2">
+        <v>4</v>
       </c>
       <c r="AE681" s="2">
         <v>1</v>
@@ -40015,7 +39907,7 @@
         <v>5</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C682" s="3">
         <v>2</v>
@@ -40033,8 +39925,8 @@
       <c r="AC682" s="2">
         <v>2</v>
       </c>
-      <c r="AD682" s="2" t="s">
-        <v>157</v>
+      <c r="AD682" s="2">
+        <v>4</v>
       </c>
       <c r="AE682" s="2">
         <v>1</v>
@@ -40045,7 +39937,7 @@
         <v>5</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C683" s="3">
         <v>2</v>
@@ -40063,8 +39955,8 @@
       <c r="AC683" s="2">
         <v>2</v>
       </c>
-      <c r="AD683" s="2" t="s">
-        <v>157</v>
+      <c r="AD683" s="2">
+        <v>4</v>
       </c>
       <c r="AE683" s="2">
         <v>1</v>
@@ -40075,7 +39967,7 @@
         <v>5</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C684" s="3">
         <v>4</v>
@@ -40093,8 +39985,8 @@
       <c r="AC684" s="2">
         <v>2</v>
       </c>
-      <c r="AD684" s="2" t="s">
-        <v>157</v>
+      <c r="AD684" s="2">
+        <v>4</v>
       </c>
       <c r="AE684" s="2">
         <v>1</v>
@@ -40123,8 +40015,8 @@
       <c r="AC685" s="2">
         <v>2</v>
       </c>
-      <c r="AD685" s="2" t="s">
-        <v>159</v>
+      <c r="AD685" s="2">
+        <v>1</v>
       </c>
       <c r="AE685" s="2">
         <v>1</v>
@@ -40135,7 +40027,7 @@
         <v>5</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C686" s="3">
         <v>1</v>
@@ -40153,8 +40045,8 @@
       <c r="AC686" s="2">
         <v>2</v>
       </c>
-      <c r="AD686" s="2" t="s">
-        <v>160</v>
+      <c r="AD686" s="2">
+        <v>1</v>
       </c>
       <c r="AE686" s="2">
         <v>1</v>
@@ -40165,7 +40057,7 @@
         <v>5</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C687" s="3">
         <v>3</v>
@@ -40183,8 +40075,8 @@
       <c r="AC687" s="2">
         <v>2</v>
       </c>
-      <c r="AD687" s="2" t="s">
-        <v>161</v>
+      <c r="AD687" s="2">
+        <v>1</v>
       </c>
       <c r="AE687" s="2">
         <v>1</v>
@@ -40195,7 +40087,7 @@
         <v>5</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C688" s="3">
         <v>2</v>
@@ -40213,8 +40105,8 @@
       <c r="AC688" s="2">
         <v>2</v>
       </c>
-      <c r="AD688" s="2" t="s">
-        <v>161</v>
+      <c r="AD688" s="2">
+        <v>1</v>
       </c>
       <c r="AE688" s="2">
         <v>1</v>
@@ -40243,8 +40135,8 @@
       <c r="AC689" s="2">
         <v>2</v>
       </c>
-      <c r="AD689" s="2" t="s">
-        <v>162</v>
+      <c r="AD689" s="2">
+        <v>4</v>
       </c>
       <c r="AE689" s="2">
         <v>1</v>
@@ -40255,7 +40147,7 @@
         <v>5</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C690" s="3">
         <v>3</v>
@@ -40273,8 +40165,8 @@
       <c r="AC690" s="2">
         <v>2</v>
       </c>
-      <c r="AD690" s="2" t="s">
-        <v>163</v>
+      <c r="AD690" s="2">
+        <v>4</v>
       </c>
       <c r="AE690" s="2">
         <v>1</v>
@@ -40285,7 +40177,7 @@
         <v>5</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C691" s="3">
         <v>3</v>
@@ -40303,8 +40195,8 @@
       <c r="AC691" s="2">
         <v>2</v>
       </c>
-      <c r="AD691" s="2" t="s">
-        <v>164</v>
+      <c r="AD691" s="2">
+        <v>4</v>
       </c>
       <c r="AE691" s="2">
         <v>1</v>
@@ -40315,7 +40207,7 @@
         <v>5</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C692" s="3">
         <v>1</v>
@@ -40333,8 +40225,8 @@
       <c r="AC692" s="2">
         <v>2</v>
       </c>
-      <c r="AD692" s="2" t="s">
-        <v>165</v>
+      <c r="AD692" s="2">
+        <v>4</v>
       </c>
       <c r="AE692" s="2">
         <v>1</v>
@@ -40345,7 +40237,7 @@
         <v>5</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C693" s="3">
         <v>1</v>
@@ -40363,8 +40255,8 @@
       <c r="AC693" s="2">
         <v>2</v>
       </c>
-      <c r="AD693" s="2" t="s">
-        <v>165</v>
+      <c r="AD693" s="2">
+        <v>4</v>
       </c>
       <c r="AE693" s="2">
         <v>1</v>
@@ -40393,8 +40285,8 @@
       <c r="AC694" s="2">
         <v>2</v>
       </c>
-      <c r="AD694" s="2" t="s">
-        <v>166</v>
+      <c r="AD694" s="2">
+        <v>4</v>
       </c>
       <c r="AE694" s="2">
         <v>1</v>
@@ -40423,8 +40315,8 @@
       <c r="AC695" s="2">
         <v>2</v>
       </c>
-      <c r="AD695" s="2" t="s">
-        <v>167</v>
+      <c r="AD695" s="2">
+        <v>4</v>
       </c>
       <c r="AE695" s="2">
         <v>1</v>
@@ -40453,8 +40345,8 @@
       <c r="AC696" s="2">
         <v>2</v>
       </c>
-      <c r="AD696" s="2" t="s">
-        <v>162</v>
+      <c r="AD696" s="2">
+        <v>4</v>
       </c>
       <c r="AE696" s="2">
         <v>1</v>
@@ -40465,7 +40357,7 @@
         <v>5</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C697" s="3">
         <v>1</v>
@@ -40483,8 +40375,8 @@
       <c r="AC697" s="2">
         <v>2</v>
       </c>
-      <c r="AD697" s="2" t="s">
-        <v>164</v>
+      <c r="AD697" s="2">
+        <v>4</v>
       </c>
       <c r="AE697" s="2">
         <v>1</v>
@@ -40495,7 +40387,7 @@
         <v>5</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C698" s="3">
         <v>3</v>
@@ -40513,8 +40405,8 @@
       <c r="AC698" s="2">
         <v>2</v>
       </c>
-      <c r="AD698" s="2" t="s">
-        <v>163</v>
+      <c r="AD698" s="2">
+        <v>4</v>
       </c>
       <c r="AE698" s="2">
         <v>1</v>
@@ -40543,8 +40435,8 @@
       <c r="AC699" s="2">
         <v>2</v>
       </c>
-      <c r="AD699" s="2" t="s">
-        <v>168</v>
+      <c r="AD699" s="2">
+        <v>1</v>
       </c>
       <c r="AE699" s="2">
         <v>1</v>
@@ -40555,7 +40447,7 @@
         <v>5</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C700" s="3">
         <v>6</v>
@@ -40573,8 +40465,8 @@
       <c r="AC700" s="2">
         <v>2</v>
       </c>
-      <c r="AD700" s="2" t="s">
-        <v>169</v>
+      <c r="AD700" s="2">
+        <v>1</v>
       </c>
       <c r="AE700" s="2">
         <v>2</v>
@@ -40603,8 +40495,8 @@
       <c r="AC701" s="2">
         <v>4</v>
       </c>
-      <c r="AD701" s="2" t="s">
-        <v>170</v>
+      <c r="AD701" s="2">
+        <v>4</v>
       </c>
       <c r="AE701" s="2">
         <v>1</v>
@@ -40633,8 +40525,8 @@
       <c r="AC702" s="2">
         <v>2</v>
       </c>
-      <c r="AD702" s="2" t="s">
-        <v>171</v>
+      <c r="AD702" s="2">
+        <v>4</v>
       </c>
       <c r="AE702" s="2">
         <v>5</v>
@@ -40663,8 +40555,8 @@
       <c r="AC703" s="2">
         <v>4</v>
       </c>
-      <c r="AD703" s="2" t="s">
-        <v>172</v>
+      <c r="AD703" s="2">
+        <v>1</v>
       </c>
       <c r="AE703" s="2">
         <v>2</v>
@@ -40673,7 +40565,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40684,8 +40576,8 @@
   </sheetPr>
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40693,7 +40585,7 @@
     <col min="1" max="1" width="1.77734375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="76" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="5" max="5" width="100.44140625" customWidth="1"/>
     <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
@@ -40701,16 +40593,16 @@
     <row r="1" spans="2:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -40718,13 +40610,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -40732,13 +40624,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40746,13 +40638,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -40760,13 +40652,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -40774,13 +40666,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>199</v>
-      </c>
       <c r="E7" s="29" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -40788,13 +40680,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40802,13 +40694,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -40816,13 +40708,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F10" s="63"/>
     </row>
@@ -40831,13 +40723,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F11" s="63"/>
     </row>
@@ -40846,13 +40738,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -40860,13 +40752,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -40874,13 +40766,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40888,13 +40780,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F15" s="63"/>
     </row>
@@ -40903,13 +40795,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F16" s="63"/>
     </row>
@@ -40918,13 +40810,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F17" s="63"/>
     </row>
@@ -40933,13 +40825,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F18" s="63"/>
     </row>
@@ -40948,13 +40840,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F19" s="63"/>
     </row>
@@ -40963,13 +40855,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F20" s="63"/>
     </row>
@@ -40978,13 +40870,13 @@
         <v>21</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F21" s="63"/>
     </row>
@@ -40993,13 +40885,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F22" s="63"/>
     </row>
@@ -41008,13 +40900,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41022,13 +40914,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41036,13 +40928,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41050,13 +40942,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -41064,13 +40956,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -41078,13 +40970,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -41092,13 +40984,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -41106,11 +40998,11 @@
         <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="13" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -41118,11 +41010,11 @@
         <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -41130,11 +41022,11 @@
         <v>32</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -41142,11 +41034,11 @@
         <v>33</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="55" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41154,7 +41046,7 @@
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="56" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Base - Pesquisa de Mercado.xlsx
+++ b/Base - Pesquisa de Mercado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo\OneDrive - Insper - Institudo de Ensino e Pesquisa\Documentos\INSPER\Insper JR\Capacitação\Base de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/enzopj_al_insper_edu_br/Documents/Documentos/INSPER/Insper JR/Capacitação/Base de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B654428-B9FD-4781-B49B-333176FE40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4B654428-B9FD-4781-B49B-333176FE40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FBD3500-814D-4C22-B5B2-3FAA5F4338FD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3CD88EF-A037-4685-92D1-3ABAA8F992C8}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,6 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:AE703"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D514" sqref="D514"/>
+    <sheetView tabSelected="1" topLeftCell="A611" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB630" sqref="AB630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28139,9 +28140,7 @@
         <v>2</v>
       </c>
       <c r="AA411" s="2"/>
-      <c r="AB411" s="2">
-        <v>3</v>
-      </c>
+      <c r="AB411" s="2"/>
       <c r="AC411" s="2">
         <v>2</v>
       </c>
@@ -38299,9 +38298,7 @@
         <v>2</v>
       </c>
       <c r="AA628" s="2"/>
-      <c r="AB628" s="2">
-        <v>3</v>
-      </c>
+      <c r="AB628" s="2"/>
       <c r="AC628" s="2">
         <v>5</v>
       </c>
@@ -38359,7 +38356,7 @@
         <v>1</v>
       </c>
       <c r="AA630" s="2"/>
-      <c r="AB630" s="2">
+      <c r="AB630" s="68">
         <v>2</v>
       </c>
       <c r="AC630" s="2">

--- a/Base - Pesquisa de Mercado.xlsx
+++ b/Base - Pesquisa de Mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/enzopj_al_insper_edu_br/Documents/Documentos/INSPER/Insper JR/Capacitação/Base de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{4B654428-B9FD-4781-B49B-333176FE40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FBD3500-814D-4C22-B5B2-3FAA5F4338FD}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4B654428-B9FD-4781-B49B-333176FE40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA405A93-0DED-4BB2-B9E9-94FEE5A0FB19}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3CD88EF-A037-4685-92D1-3ABAA8F992C8}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,7 +1218,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,8 +1543,8 @@
   </sheetPr>
   <dimension ref="A1:AE703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A611" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB630" sqref="AB630"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30804,9 +30803,7 @@
         <v>1</v>
       </c>
       <c r="AA445" s="2"/>
-      <c r="AB445" s="2">
-        <v>3</v>
-      </c>
+      <c r="AB445" s="2"/>
       <c r="AC445" s="2">
         <v>1</v>
       </c>
@@ -37248,9 +37245,7 @@
         <v>2</v>
       </c>
       <c r="AA593" s="2"/>
-      <c r="AB593" s="2">
-        <v>3</v>
-      </c>
+      <c r="AB593" s="2"/>
       <c r="AC593" s="2">
         <v>5</v>
       </c>
@@ -38356,7 +38351,7 @@
         <v>1</v>
       </c>
       <c r="AA630" s="2"/>
-      <c r="AB630" s="68">
+      <c r="AB630" s="2">
         <v>2</v>
       </c>
       <c r="AC630" s="2">
